--- a/biology/Zoologie/Copiocerinae/Copiocerinae.xlsx
+++ b/biology/Zoologie/Copiocerinae/Copiocerinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Copiocerinae sont une sous-famille d'orthoptères caelifères de la famille des Acrididae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique du Sud, en Amérique centrale et au sud de l'Amérique du Nord.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File (1er avril 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File (1er avril 2010) :
 Aleuasini Brunner von Wattenwyl, 1893
 Aleuas Stål, 1878
 Zygoclistron Rehn, 1905
@@ -599,7 +615,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brunner von Wattenwyl , 1893 : Révision du système des orthoptères et description des espèces rapportées par M. Leonardo Fea de Birmanie.  Annali del Museo Civico di Storia Naturale ‘Giacomo Doria’, Genova, vol. 33, p. 1–230 (texte original).</t>
         </is>
